--- a/contrib/format-excel/src/test/resources/excel/test_data.xlsx
+++ b/contrib/format-excel/src/test/resources/excel/test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgivre/github/drill-dev/drill/contrib/format-excel/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0637A780-DC7A-1547-9037-6D4703C23137}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D24C478-BB41-CB4D-817A-62FC5708BA64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52280" yWindow="4120" windowWidth="35260" windowHeight="20340" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/contrib/format-excel/src/test/resources/excel/test_data.xlsx
+++ b/contrib/format-excel/src/test/resources/excel/test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgivre/github/drill-dev/drill/contrib/format-excel/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D24C478-BB41-CB4D-817A-62FC5708BA64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9D6CE3-7B29-CE42-AFAB-CCF8E419C8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52280" yWindow="4120" windowWidth="35260" windowHeight="20340" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52280" yWindow="4120" windowWidth="35260" windowHeight="20340" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,25 @@
     <sheet name="missingDataSheet" sheetId="7" r:id="rId6"/>
     <sheet name="inconsistentData" sheetId="8" r:id="rId7"/>
     <sheet name="comps" sheetId="9" r:id="rId8"/>
+    <sheet name="spaceInColHeader" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -261,6 +273,9 @@
   </si>
   <si>
     <t>Townhouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col2 </t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4F5EFA-37CF-6F4E-9599-85DA98E59077}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -1803,4 +1818,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2239CDA4-D7E0-0845-8071-70A4E440723B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>